--- a/Chenda.xlsx
+++ b/Chenda.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Desktop\CODING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C47407-3748-4E33-A2E2-32294B2E660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6766A8-4954-4BB2-9E24-2C89A9C7FB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99AB6E6A-85BA-4F0A-A1B5-9EF41BDE36B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -63,23 +66,273 @@
     <t>Pending Fees</t>
   </si>
   <si>
-    <t>Chenda</t>
-  </si>
-  <si>
-    <t>01.10.2023</t>
-  </si>
-  <si>
     <t>ABHINAV KIRAN</t>
   </si>
   <si>
     <t>ABHAYJITH</t>
+  </si>
+  <si>
+    <t>ABHIJITH</t>
+  </si>
+  <si>
+    <t>ABHIMANYU</t>
+  </si>
+  <si>
+    <t>ADIDEV S G</t>
+  </si>
+  <si>
+    <t>ADIRATH</t>
+  </si>
+  <si>
+    <t>ADITHAYAN A S</t>
+  </si>
+  <si>
+    <t>ADITHYA A ABHILASH</t>
+  </si>
+  <si>
+    <t>ADITHYAN A</t>
+  </si>
+  <si>
+    <t>ADITHYAN B S</t>
+  </si>
+  <si>
+    <t>ADITHYAN R S</t>
+  </si>
+  <si>
+    <t>ADITHYAN S M</t>
+  </si>
+  <si>
+    <t>ADWAITH</t>
+  </si>
+  <si>
+    <t>ADWAITH R P</t>
+  </si>
+  <si>
+    <t>AKHIL B</t>
+  </si>
+  <si>
+    <t>AKHIL SANTHOSH</t>
+  </si>
+  <si>
+    <t>ANANTHAKRISHNAN S</t>
+  </si>
+  <si>
+    <t>ANU</t>
+  </si>
+  <si>
+    <t>ARAV SHANKAR A</t>
+  </si>
+  <si>
+    <t>ARAVIND</t>
+  </si>
+  <si>
+    <t>ARJUN R</t>
+  </si>
+  <si>
+    <t>ARUSH P R</t>
+  </si>
+  <si>
+    <t>ARYA A</t>
+  </si>
+  <si>
+    <t>ASWANTH B</t>
+  </si>
+  <si>
+    <t>ASWIN R</t>
+  </si>
+  <si>
+    <t>ASWIN V</t>
+  </si>
+  <si>
+    <t>ATHUL A M</t>
+  </si>
+  <si>
+    <t>ATHUL A S</t>
+  </si>
+  <si>
+    <t>DEVA NAND PRADEEP</t>
+  </si>
+  <si>
+    <t>DEVA NARAYANAN</t>
+  </si>
+  <si>
+    <t>DEVANANDA P</t>
+  </si>
+  <si>
+    <t>DEVA NAND M R</t>
+  </si>
+  <si>
+    <t>DIPIN D</t>
+  </si>
+  <si>
+    <t>DRUV HARI M</t>
+  </si>
+  <si>
+    <t>DYAN HARI M</t>
+  </si>
+  <si>
+    <t>GURUMITHRAN D L</t>
+  </si>
+  <si>
+    <t>JANADATHAN D L</t>
+  </si>
+  <si>
+    <t>KASHINADH C S SREEKUTTY</t>
+  </si>
+  <si>
+    <t>KASHINADH S N</t>
+  </si>
+  <si>
+    <t>KASHINATH S S</t>
+  </si>
+  <si>
+    <t>MADHAV A S</t>
+  </si>
+  <si>
+    <t>MANOJ</t>
+  </si>
+  <si>
+    <t>MIDHUN</t>
+  </si>
+  <si>
+    <t>NIHARA R B</t>
+  </si>
+  <si>
+    <t>NIRANJAN B A</t>
+  </si>
+  <si>
+    <t>RAHUL KRISHNA</t>
+  </si>
+  <si>
+    <t>RAJATH KRISHNA</t>
+  </si>
+  <si>
+    <t>SABARI S</t>
+  </si>
+  <si>
+    <t>SANJAY SANTHOSH</t>
+  </si>
+  <si>
+    <t>SANUSH</t>
+  </si>
+  <si>
+    <t>SARGA C S</t>
+  </si>
+  <si>
+    <t>SIDHARTH P NAIR</t>
+  </si>
+  <si>
+    <t>SIDHARTH S</t>
+  </si>
+  <si>
+    <t>SIVADATH B</t>
+  </si>
+  <si>
+    <t>SIVARATH L</t>
+  </si>
+  <si>
+    <t>SOORYANARAYANAN</t>
+  </si>
+  <si>
+    <t>SREEHARI A M</t>
+  </si>
+  <si>
+    <t>SREEHARI G M</t>
+  </si>
+  <si>
+    <t>THEJAS</t>
+  </si>
+  <si>
+    <t>VAISHNAV M C</t>
+  </si>
+  <si>
+    <t>VAISHNAV V</t>
+  </si>
+  <si>
+    <t>VIDHUKRISHNAN P</t>
+  </si>
+  <si>
+    <t>VIGNESH S A</t>
+  </si>
+  <si>
+    <t>DEVANAND V S</t>
+  </si>
+  <si>
+    <t>VAIBHAV V</t>
+  </si>
+  <si>
+    <t>PRATHISH S</t>
+  </si>
+  <si>
+    <t>Chenda Class</t>
+  </si>
+  <si>
+    <t>2 Months</t>
+  </si>
+  <si>
+    <t>15 Months</t>
+  </si>
+  <si>
+    <t>7 Months</t>
+  </si>
+  <si>
+    <t>12 Months</t>
+  </si>
+  <si>
+    <t>No Ad fee</t>
+  </si>
+  <si>
+    <t>Old Student</t>
+  </si>
+  <si>
+    <t>11 Months</t>
+  </si>
+  <si>
+    <t>9 Months</t>
+  </si>
+  <si>
+    <t>4 Months</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t>5 Months</t>
+  </si>
+  <si>
+    <t>8 Months</t>
+  </si>
+  <si>
+    <t>No Ad. Fee</t>
+  </si>
+  <si>
+    <t>13 Months</t>
+  </si>
+  <si>
+    <t>10 Months</t>
+  </si>
+  <si>
+    <t>0 Months</t>
+  </si>
+  <si>
+    <t>14 Months</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="dd\ mmm\ yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,20 +366,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{79AD692D-5953-4247-9D6C-457754FAE75B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,6 +400,573 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ENTRY FORM"/>
+      <sheetName val="DATA SHEET"/>
+      <sheetName val="STUDENTS"/>
+      <sheetName val="DEPOSIT"/>
+      <sheetName val="REPORT"/>
+      <sheetName val="PENDING"/>
+      <sheetName val="Class Attendance"/>
+      <sheetName val="PIVOT"/>
+      <sheetName val="FILTER"/>
+      <sheetName val="NAME"/>
+      <sheetName val="PSD"/>
+      <sheetName val="WEBAPP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="AL3">
+            <v>17</v>
+          </cell>
+          <cell r="AM3">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AL4">
+            <v>4</v>
+          </cell>
+          <cell r="AM4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AL5">
+            <v>7</v>
+          </cell>
+          <cell r="AM5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AL6">
+            <v>12</v>
+          </cell>
+          <cell r="AM6">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AL7">
+            <v>7</v>
+          </cell>
+          <cell r="AM7">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AL8">
+            <v>6</v>
+          </cell>
+          <cell r="AM8">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AL9">
+            <v>5</v>
+          </cell>
+          <cell r="AM9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AL10">
+            <v>6</v>
+          </cell>
+          <cell r="AM10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AL11">
+            <v>6</v>
+          </cell>
+          <cell r="AM11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AL12">
+            <v>7</v>
+          </cell>
+          <cell r="AM12">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AL13">
+            <v>12</v>
+          </cell>
+          <cell r="AM13">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AL14">
+            <v>5</v>
+          </cell>
+          <cell r="AM14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AL15">
+            <v>4</v>
+          </cell>
+          <cell r="AM15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AL16">
+            <v>13</v>
+          </cell>
+          <cell r="AM16">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AL17">
+            <v>15</v>
+          </cell>
+          <cell r="AM17">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AL18">
+            <v>5</v>
+          </cell>
+          <cell r="AM18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AL19">
+            <v>8</v>
+          </cell>
+          <cell r="AM19">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AL20">
+            <v>7</v>
+          </cell>
+          <cell r="AM20">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AL21">
+            <v>4</v>
+          </cell>
+          <cell r="AM21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AL22">
+            <v>5</v>
+          </cell>
+          <cell r="AM22">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AL23">
+            <v>8</v>
+          </cell>
+          <cell r="AM23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AL24">
+            <v>10</v>
+          </cell>
+          <cell r="AM24">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AL25">
+            <v>8</v>
+          </cell>
+          <cell r="AM25">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AL26">
+            <v>5</v>
+          </cell>
+          <cell r="AM26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AL27">
+            <v>4</v>
+          </cell>
+          <cell r="AM27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AL28">
+            <v>10</v>
+          </cell>
+          <cell r="AM28">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AL29">
+            <v>15</v>
+          </cell>
+          <cell r="AM29">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AL30">
+            <v>13</v>
+          </cell>
+          <cell r="AM30">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AL31">
+            <v>14</v>
+          </cell>
+          <cell r="AM31">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AL32">
+            <v>5</v>
+          </cell>
+          <cell r="AM32">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AL33">
+            <v>13</v>
+          </cell>
+          <cell r="AM33">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AL34">
+            <v>10</v>
+          </cell>
+          <cell r="AM34">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AL35">
+            <v>7</v>
+          </cell>
+          <cell r="AM35">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AL36">
+            <v>10</v>
+          </cell>
+          <cell r="AM36">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AL37">
+            <v>10</v>
+          </cell>
+          <cell r="AM37">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AL38">
+            <v>6</v>
+          </cell>
+          <cell r="AM38">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="AL39">
+            <v>6</v>
+          </cell>
+          <cell r="AM39">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AL40">
+            <v>9</v>
+          </cell>
+          <cell r="AM40">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AL41">
+            <v>7</v>
+          </cell>
+          <cell r="AM41">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AL42">
+            <v>11</v>
+          </cell>
+          <cell r="AM42">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="AL43">
+            <v>14</v>
+          </cell>
+          <cell r="AM43">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="AL44">
+            <v>10</v>
+          </cell>
+          <cell r="AM44">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="AL45">
+            <v>8</v>
+          </cell>
+          <cell r="AM45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="AL46">
+            <v>8</v>
+          </cell>
+          <cell r="AM46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="AL47">
+            <v>7</v>
+          </cell>
+          <cell r="AM47">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AL48">
+            <v>8</v>
+          </cell>
+          <cell r="AM48">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AL49">
+            <v>6</v>
+          </cell>
+          <cell r="AM49">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AL50">
+            <v>15</v>
+          </cell>
+          <cell r="AM50">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="AL51">
+            <v>9</v>
+          </cell>
+          <cell r="AM51">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AL52">
+            <v>8</v>
+          </cell>
+          <cell r="AM52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AL53">
+            <v>8</v>
+          </cell>
+          <cell r="AM53">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AL54">
+            <v>19</v>
+          </cell>
+          <cell r="AM54">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="AL55">
+            <v>15</v>
+          </cell>
+          <cell r="AM55">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="AL56">
+            <v>14</v>
+          </cell>
+          <cell r="AM56">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="AL57">
+            <v>5</v>
+          </cell>
+          <cell r="AM57">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="AL58">
+            <v>5</v>
+          </cell>
+          <cell r="AM58">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="AL59">
+            <v>5</v>
+          </cell>
+          <cell r="AM59">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="AL60">
+            <v>6</v>
+          </cell>
+          <cell r="AM60">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="AL61">
+            <v>6</v>
+          </cell>
+          <cell r="AM61">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="AL62">
+            <v>17</v>
+          </cell>
+          <cell r="AM62">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="AL63">
+            <v>13</v>
+          </cell>
+          <cell r="AM63">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="AL64">
+            <v>5</v>
+          </cell>
+          <cell r="AM64">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="AL65">
+            <v>12</v>
+          </cell>
+          <cell r="AM65">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="AL66">
+            <v>9</v>
+          </cell>
+          <cell r="AM66">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="AL67">
+            <v>14</v>
+          </cell>
+          <cell r="AM67">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="AL68">
+            <v>15</v>
+          </cell>
+          <cell r="AM68">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,118 +1266,1750 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E617C6-8E46-485F-8D62-336ADCEE1450}">
-  <dimension ref="A1:I9"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="4" customWidth="1"/>
+    <col min="2" max="7" width="16.28515625" style="4" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" style="6" customWidth="1"/>
+    <col min="10" max="17" width="16.28515625" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="14.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45416</v>
+      </c>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4">
+        <f>[1]STUDENTS!AL3</f>
+        <v>17</v>
+      </c>
+      <c r="G2" s="4">
+        <f>[1]STUDENTS!AM3</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E3" s="6">
+        <v>200</v>
+      </c>
+      <c r="F3" s="4">
+        <f>[1]STUDENTS!AL4</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <f>[1]STUDENTS!AM4</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45038</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4">
+        <f>[1]STUDENTS!AL5</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <f>[1]STUDENTS!AM5</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E5" s="6">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4">
+        <f>[1]STUDENTS!AL6</f>
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <f>[1]STUDENTS!AM6</f>
+        <v>8</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45038</v>
+      </c>
+      <c r="E6" s="6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="4">
+        <f>[1]STUDENTS!AL7</f>
+        <v>7</v>
+      </c>
+      <c r="G6" s="4">
+        <f>[1]STUDENTS!AM7</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E7" s="6">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4">
+        <f>[1]STUDENTS!AL8</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="4">
+        <f>[1]STUDENTS!AM8</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E8" s="6">
+        <v>200</v>
+      </c>
+      <c r="F8" s="4">
+        <f>[1]STUDENTS!AL9</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <f>[1]STUDENTS!AM9</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="4">
+        <f>[1]STUDENTS!AL10</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f>[1]STUDENTS!AM10</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4">
+        <f>[1]STUDENTS!AL11</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="4">
+        <f>[1]STUDENTS!AM11</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E11" s="6">
+        <v>200</v>
+      </c>
+      <c r="F11" s="4">
+        <f>[1]STUDENTS!AL12</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="4">
+        <f>[1]STUDENTS!AM12</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E12" s="6">
+        <v>200</v>
+      </c>
+      <c r="F12" s="4">
+        <f>[1]STUDENTS!AL13</f>
+        <v>12</v>
+      </c>
+      <c r="G12" s="4">
+        <f>[1]STUDENTS!AM13</f>
+        <v>8</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E13" s="6">
+        <v>200</v>
+      </c>
+      <c r="F13" s="4">
+        <f>[1]STUDENTS!AL14</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <f>[1]STUDENTS!AM14</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45038</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="4">
+        <f>[1]STUDENTS!AL15</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <f>[1]STUDENTS!AM15</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45297</v>
+      </c>
+      <c r="E15" s="6">
+        <v>200</v>
+      </c>
+      <c r="F15" s="4">
+        <f>[1]STUDENTS!AL16</f>
+        <v>13</v>
+      </c>
+      <c r="G15" s="4">
+        <f>[1]STUDENTS!AM16</f>
+        <v>2</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45423</v>
+      </c>
+      <c r="E16" s="6">
+        <v>200</v>
+      </c>
+      <c r="F16" s="4">
+        <f>[1]STUDENTS!AL17</f>
+        <v>15</v>
+      </c>
+      <c r="G16" s="4">
+        <f>[1]STUDENTS!AM17</f>
+        <v>3</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="4">
+        <f>[1]STUDENTS!AL18</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <f>[1]STUDENTS!AM18</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E18" s="6">
+        <v>200</v>
+      </c>
+      <c r="F18" s="4">
+        <f>[1]STUDENTS!AL19</f>
+        <v>8</v>
+      </c>
+      <c r="G18" s="4">
+        <f>[1]STUDENTS!AM19</f>
+        <v>4</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45038</v>
+      </c>
+      <c r="E19" s="6">
+        <v>200</v>
+      </c>
+      <c r="F19" s="4">
+        <f>[1]STUDENTS!AL20</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="4">
+        <f>[1]STUDENTS!AM20</f>
+        <v>2</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E20" s="6">
+        <v>200</v>
+      </c>
+      <c r="F20" s="4">
+        <f>[1]STUDENTS!AL21</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <f>[1]STUDENTS!AM21</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E21" s="6">
+        <v>200</v>
+      </c>
+      <c r="F21" s="4">
+        <f>[1]STUDENTS!AL22</f>
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <f>[1]STUDENTS!AM22</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="4">
+        <f>[1]STUDENTS!AL23</f>
+        <v>8</v>
+      </c>
+      <c r="G22" s="4">
+        <f>[1]STUDENTS!AM23</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E23" s="6">
+        <v>200</v>
+      </c>
+      <c r="F23" s="4">
+        <f>[1]STUDENTS!AL24</f>
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>1051</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
-      <c r="F2">
+      <c r="G23" s="4">
+        <f>[1]STUDENTS!AM24</f>
+        <v>6</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45095</v>
+      </c>
+      <c r="E24" s="6">
+        <v>200</v>
+      </c>
+      <c r="F24" s="4">
+        <f>[1]STUDENTS!AL25</f>
+        <v>8</v>
+      </c>
+      <c r="G24" s="4">
+        <f>[1]STUDENTS!AM25</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45038</v>
+      </c>
+      <c r="E25" s="6">
+        <v>200</v>
+      </c>
+      <c r="F25" s="4">
+        <f>[1]STUDENTS!AL26</f>
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
+        <f>[1]STUDENTS!AM26</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="4">
+        <f>[1]STUDENTS!AL27</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <f>[1]STUDENTS!AM27</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E27" s="6">
+        <v>200</v>
+      </c>
+      <c r="F27" s="4">
+        <f>[1]STUDENTS!AL28</f>
+        <v>10</v>
+      </c>
+      <c r="G27" s="4">
+        <f>[1]STUDENTS!AM28</f>
+        <v>6</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45420</v>
+      </c>
+      <c r="E28" s="6">
+        <v>200</v>
+      </c>
+      <c r="F28" s="4">
+        <f>[1]STUDENTS!AL29</f>
+        <v>15</v>
+      </c>
+      <c r="G28" s="4">
+        <f>[1]STUDENTS!AM29</f>
+        <v>3</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45038</v>
+      </c>
+      <c r="E29" s="6">
+        <v>200</v>
+      </c>
+      <c r="F29" s="4">
+        <f>[1]STUDENTS!AL30</f>
+        <v>13</v>
+      </c>
+      <c r="G29" s="4">
+        <f>[1]STUDENTS!AM30</f>
+        <v>9</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45297</v>
+      </c>
+      <c r="E30" s="6">
+        <v>200</v>
+      </c>
+      <c r="F30" s="4">
+        <f>[1]STUDENTS!AL31</f>
+        <v>14</v>
+      </c>
+      <c r="G30" s="4">
+        <f>[1]STUDENTS!AM31</f>
+        <v>3</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E31" s="6">
+        <v>200</v>
+      </c>
+      <c r="F31" s="4">
+        <f>[1]STUDENTS!AL32</f>
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <f>[1]STUDENTS!AM32</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E32" s="6">
+        <v>200</v>
+      </c>
+      <c r="F32" s="4">
+        <f>[1]STUDENTS!AL33</f>
+        <v>13</v>
+      </c>
+      <c r="G32" s="4">
+        <f>[1]STUDENTS!AM33</f>
+        <v>9</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E33" s="6">
+        <v>200</v>
+      </c>
+      <c r="F33" s="4">
+        <f>[1]STUDENTS!AL34</f>
+        <v>10</v>
+      </c>
+      <c r="G33" s="4">
+        <f>[1]STUDENTS!AM34</f>
+        <v>6</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E34" s="6">
+        <v>200</v>
+      </c>
+      <c r="F34" s="4">
+        <f>[1]STUDENTS!AL35</f>
+        <v>7</v>
+      </c>
+      <c r="G34" s="4">
+        <f>[1]STUDENTS!AM35</f>
+        <v>3</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="6">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E35" s="6">
+        <v>200</v>
+      </c>
+      <c r="F35" s="4">
+        <f>[1]STUDENTS!AL36</f>
+        <v>10</v>
+      </c>
+      <c r="G35" s="4">
+        <f>[1]STUDENTS!AM36</f>
+        <v>6</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E36" s="6">
+        <v>200</v>
+      </c>
+      <c r="F36" s="4">
+        <f>[1]STUDENTS!AL37</f>
+        <v>10</v>
+      </c>
+      <c r="G36" s="4">
+        <f>[1]STUDENTS!AM37</f>
+        <v>6</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="6">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E37" s="6">
+        <v>200</v>
+      </c>
+      <c r="F37" s="4">
+        <f>[1]STUDENTS!AL38</f>
+        <v>6</v>
+      </c>
+      <c r="G37" s="4">
+        <f>[1]STUDENTS!AM38</f>
+        <v>2</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E38" s="6">
+        <v>200</v>
+      </c>
+      <c r="F38" s="4">
+        <f>[1]STUDENTS!AL39</f>
+        <v>6</v>
+      </c>
+      <c r="G38" s="4">
+        <f>[1]STUDENTS!AM39</f>
+        <v>2</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45165</v>
+      </c>
+      <c r="E39" s="6">
+        <v>200</v>
+      </c>
+      <c r="F39" s="4">
+        <f>[1]STUDENTS!AL40</f>
+        <v>9</v>
+      </c>
+      <c r="G39" s="4">
+        <f>[1]STUDENTS!AM40</f>
+        <v>2</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45095</v>
+      </c>
+      <c r="E40" s="6">
+        <v>200</v>
+      </c>
+      <c r="F40" s="4">
+        <f>[1]STUDENTS!AL41</f>
+        <v>7</v>
+      </c>
+      <c r="G40" s="4">
+        <f>[1]STUDENTS!AM41</f>
+        <v>2</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="6">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E41" s="6">
+        <v>200</v>
+      </c>
+      <c r="F41" s="4">
+        <f>[1]STUDENTS!AL42</f>
+        <v>11</v>
+      </c>
+      <c r="G41" s="4">
+        <f>[1]STUDENTS!AM42</f>
+        <v>7</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="6">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E42" s="6">
+        <v>200</v>
+      </c>
+      <c r="F42" s="4">
+        <f>[1]STUDENTS!AL43</f>
+        <v>14</v>
+      </c>
+      <c r="G42" s="4">
+        <f>[1]STUDENTS!AM43</f>
+        <v>10</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45078</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="4">
+        <f>[1]STUDENTS!AL44</f>
+        <v>10</v>
+      </c>
+      <c r="G43" s="4">
+        <f>[1]STUDENTS!AM44</f>
+        <v>5</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E44" s="6">
+        <v>200</v>
+      </c>
+      <c r="F44" s="4">
+        <f>[1]STUDENTS!AL45</f>
+        <v>8</v>
+      </c>
+      <c r="G44" s="4">
+        <f>[1]STUDENTS!AM45</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E45" s="6">
+        <v>200</v>
+      </c>
+      <c r="F45" s="4">
+        <f>[1]STUDENTS!AL46</f>
+        <v>8</v>
+      </c>
+      <c r="G45" s="4">
+        <f>[1]STUDENTS!AM46</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45022</v>
+      </c>
+      <c r="E46" s="6">
+        <v>200</v>
+      </c>
+      <c r="F46" s="4">
+        <f>[1]STUDENTS!AL47</f>
+        <v>7</v>
+      </c>
+      <c r="G46" s="4">
+        <f>[1]STUDENTS!AM47</f>
+        <v>2</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E47" s="6">
+        <v>200</v>
+      </c>
+      <c r="F47" s="4">
+        <f>[1]STUDENTS!AL48</f>
+        <v>8</v>
+      </c>
+      <c r="G47" s="4">
+        <f>[1]STUDENTS!AM48</f>
+        <v>4</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" s="6">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="4">
+        <f>[1]STUDENTS!AL49</f>
+        <v>6</v>
+      </c>
+      <c r="G48" s="4">
+        <f>[1]STUDENTS!AM49</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="6">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="5">
+        <v>45480</v>
+      </c>
+      <c r="E49" s="6">
+        <v>200</v>
+      </c>
+      <c r="F49" s="4">
+        <f>[1]STUDENTS!AL50</f>
+        <v>15</v>
+      </c>
+      <c r="G49" s="4">
+        <f>[1]STUDENTS!AM50</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E50" s="6">
+        <v>200</v>
+      </c>
+      <c r="F50" s="4">
+        <f>[1]STUDENTS!AL51</f>
+        <v>9</v>
+      </c>
+      <c r="G50" s="4">
+        <f>[1]STUDENTS!AM51</f>
+        <v>5</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="5">
+        <v>45038</v>
+      </c>
+      <c r="E51" s="6">
+        <v>200</v>
+      </c>
+      <c r="F51" s="4">
+        <f>[1]STUDENTS!AL52</f>
+        <v>8</v>
+      </c>
+      <c r="G51" s="4">
+        <f>[1]STUDENTS!AM52</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="4">
+        <f>[1]STUDENTS!AL53</f>
+        <v>8</v>
+      </c>
+      <c r="G52" s="4">
+        <f>[1]STUDENTS!AM53</f>
+        <v>4</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="6">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="5">
+        <v>45420</v>
+      </c>
+      <c r="E53" s="6">
+        <v>200</v>
+      </c>
+      <c r="F53" s="4">
+        <f>[1]STUDENTS!AL54</f>
+        <v>19</v>
+      </c>
+      <c r="G53" s="4">
+        <f>[1]STUDENTS!AM54</f>
+        <v>7</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="5">
+        <v>45480</v>
+      </c>
+      <c r="E54" s="6">
+        <v>200</v>
+      </c>
+      <c r="F54" s="4">
+        <f>[1]STUDENTS!AL55</f>
+        <v>15</v>
+      </c>
+      <c r="G54" s="4">
+        <f>[1]STUDENTS!AM55</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E55" s="6">
+        <v>200</v>
+      </c>
+      <c r="F55" s="4">
+        <f>[1]STUDENTS!AL56</f>
+        <v>14</v>
+      </c>
+      <c r="G55" s="4">
+        <f>[1]STUDENTS!AM56</f>
+        <v>10</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="5">
+        <v>45038</v>
+      </c>
+      <c r="E56" s="6">
+        <v>200</v>
+      </c>
+      <c r="F56" s="4">
+        <f>[1]STUDENTS!AL57</f>
+        <v>5</v>
+      </c>
+      <c r="G56" s="4">
+        <f>[1]STUDENTS!AM57</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E57" s="6">
+        <v>200</v>
+      </c>
+      <c r="F57" s="4">
+        <f>[1]STUDENTS!AL58</f>
+        <v>5</v>
+      </c>
+      <c r="G57" s="4">
+        <f>[1]STUDENTS!AM58</f>
+        <v>1</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E58" s="6">
+        <v>200</v>
+      </c>
+      <c r="F58" s="4">
+        <f>[1]STUDENTS!AL59</f>
+        <v>5</v>
+      </c>
+      <c r="G58" s="4">
+        <f>[1]STUDENTS!AM59</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="5">
+        <v>45052</v>
+      </c>
+      <c r="E59" s="6">
+        <v>200</v>
+      </c>
+      <c r="F59" s="4">
+        <f>[1]STUDENTS!AL60</f>
+        <v>6</v>
+      </c>
+      <c r="G59" s="4">
+        <f>[1]STUDENTS!AM60</f>
+        <v>2</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E60" s="6">
+        <v>200</v>
+      </c>
+      <c r="F60" s="4">
+        <f>[1]STUDENTS!AL61</f>
+        <v>6</v>
+      </c>
+      <c r="G60" s="4">
+        <f>[1]STUDENTS!AM61</f>
+        <v>2</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E61" s="6">
+        <v>200</v>
+      </c>
+      <c r="F61" s="4">
+        <f>[1]STUDENTS!AL62</f>
+        <v>17</v>
+      </c>
+      <c r="G61" s="4">
+        <f>[1]STUDENTS!AM62</f>
+        <v>13</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="5">
+        <v>45417</v>
+      </c>
+      <c r="E62" s="6">
+        <v>200</v>
+      </c>
+      <c r="F62" s="4">
+        <f>[1]STUDENTS!AL63</f>
+        <v>13</v>
+      </c>
+      <c r="G62" s="4">
+        <f>[1]STUDENTS!AM63</f>
+        <v>1</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="5">
+        <v>45046</v>
+      </c>
+      <c r="E63" s="6">
+        <v>200</v>
+      </c>
+      <c r="F63" s="4">
+        <f>[1]STUDENTS!AL64</f>
+        <v>5</v>
+      </c>
+      <c r="G63" s="4">
+        <f>[1]STUDENTS!AM64</f>
+        <v>1</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" s="6">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="5">
+        <v>45031</v>
+      </c>
+      <c r="E64" s="6">
+        <v>200</v>
+      </c>
+      <c r="F64" s="4">
+        <f>[1]STUDENTS!AL65</f>
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G64" s="4">
+        <f>[1]STUDENTS!AM65</f>
+        <v>8</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="5">
+        <v>45081</v>
+      </c>
+      <c r="E65" s="6">
+        <v>200</v>
+      </c>
+      <c r="F65" s="4">
+        <f>[1]STUDENTS!AL66</f>
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>1051</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="G65" s="4">
+        <f>[1]STUDENTS!AM66</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="5">
+        <v>45417</v>
+      </c>
+      <c r="E66" s="6">
+        <v>200</v>
+      </c>
+      <c r="F66" s="4">
+        <f>[1]STUDENTS!AL67</f>
+        <v>14</v>
+      </c>
+      <c r="G66" s="4">
+        <f>[1]STUDENTS!AM67</f>
+        <v>2</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="5">
+        <v>45480</v>
+      </c>
+      <c r="E67" s="6">
+        <v>200</v>
+      </c>
+      <c r="F67" s="4">
+        <f>[1]STUDENTS!AL68</f>
+        <v>15</v>
+      </c>
+      <c r="G67" s="4">
+        <f>[1]STUDENTS!AM68</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chenda.xlsx
+++ b/Chenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Desktop\CODING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6766A8-4954-4BB2-9E24-2C89A9C7FB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C451E68B-9966-443A-9C02-8FA1A4E9A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99AB6E6A-85BA-4F0A-A1B5-9EF41BDE36B0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -316,6 +316,54 @@
   </si>
   <si>
     <t>14 Months</t>
+  </si>
+  <si>
+    <t>05.04.2024</t>
+  </si>
+  <si>
+    <t>04.15.2023</t>
+  </si>
+  <si>
+    <t>04.22.2023</t>
+  </si>
+  <si>
+    <t>04.30.2023</t>
+  </si>
+  <si>
+    <t>01.06.2023</t>
+  </si>
+  <si>
+    <t>01.06.2024</t>
+  </si>
+  <si>
+    <t>05.11.2024</t>
+  </si>
+  <si>
+    <t>06.18.2023</t>
+  </si>
+  <si>
+    <t>05.05.2023</t>
+  </si>
+  <si>
+    <t>05.06.2023</t>
+  </si>
+  <si>
+    <t>07.07.2024</t>
+  </si>
+  <si>
+    <t>06.04.2023</t>
+  </si>
+  <si>
+    <t>05.08.2024</t>
+  </si>
+  <si>
+    <t>04.06.2023</t>
+  </si>
+  <si>
+    <t>06.01.2023</t>
+  </si>
+  <si>
+    <t>08.27.2023</t>
   </si>
 </sst>
 </file>
@@ -323,7 +371,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="mm\.dd\.yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -380,10 +428,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,19 +1318,19 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="4" customWidth="1"/>
     <col min="2" max="7" width="16.28515625" style="4" customWidth="1"/>
-    <col min="8" max="9" width="16.28515625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" style="5" customWidth="1"/>
     <col min="10" max="17" width="16.28515625" style="4" customWidth="1"/>
     <col min="18" max="16384" width="14.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1311,17 +1359,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="5">
-        <v>45416</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="C2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="5">
         <v>200</v>
       </c>
       <c r="F2" s="4">
@@ -1332,24 +1380,24 @@
         <f>[1]STUDENTS!AM3</f>
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="5">
         <v>200</v>
       </c>
       <c r="F3" s="4">
@@ -1360,24 +1408,24 @@
         <f>[1]STUDENTS!AM4</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>4500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="5">
-        <v>45038</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="5">
         <v>200</v>
       </c>
       <c r="F4" s="4">
@@ -1388,20 +1436,18 @@
         <f>[1]STUDENTS!AM5</f>
         <v>1</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="C5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="5">
         <v>200</v>
       </c>
       <c r="F5" s="4">
@@ -1412,24 +1458,24 @@
         <f>[1]STUDENTS!AM6</f>
         <v>8</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>2100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="5">
-        <v>45038</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="5">
         <v>200</v>
       </c>
       <c r="F6" s="4">
@@ -1440,24 +1486,24 @@
         <f>[1]STUDENTS!AM7</f>
         <v>3</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="5">
         <v>200</v>
       </c>
       <c r="F7" s="4">
@@ -1468,20 +1514,18 @@
         <f>[1]STUDENTS!AM8</f>
         <v>2</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="C8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="5">
         <v>200</v>
       </c>
       <c r="F8" s="4">
@@ -1492,20 +1536,18 @@
         <f>[1]STUDENTS!AM9</f>
         <v>1</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F9" s="4">
@@ -1516,20 +1558,18 @@
         <f>[1]STUDENTS!AM10</f>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F10" s="4">
@@ -1540,20 +1580,18 @@
         <f>[1]STUDENTS!AM11</f>
         <v>0</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="C11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="5">
         <v>200</v>
       </c>
       <c r="F11" s="4">
@@ -1564,20 +1602,18 @@
         <f>[1]STUDENTS!AM12</f>
         <v>3</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="C12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="5">
         <v>200</v>
       </c>
       <c r="F12" s="4">
@@ -1588,24 +1624,24 @@
         <f>[1]STUDENTS!AM13</f>
         <v>8</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="C13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="5">
         <v>200</v>
       </c>
       <c r="F13" s="4">
@@ -1616,20 +1652,18 @@
         <f>[1]STUDENTS!AM14</f>
         <v>1</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="5">
-        <v>45038</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F14" s="4">
@@ -1640,20 +1674,18 @@
         <f>[1]STUDENTS!AM15</f>
         <v>0</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="5">
-        <v>45297</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="C15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="5">
         <v>200</v>
       </c>
       <c r="F15" s="4">
@@ -1664,20 +1696,18 @@
         <f>[1]STUDENTS!AM16</f>
         <v>2</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="5">
-        <v>45423</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="C16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="5">
         <v>200</v>
       </c>
       <c r="F16" s="4">
@@ -1688,20 +1718,18 @@
         <f>[1]STUDENTS!AM17</f>
         <v>3</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="4">
@@ -1712,20 +1740,18 @@
         <f>[1]STUDENTS!AM18</f>
         <v>1</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="C18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="5">
         <v>200</v>
       </c>
       <c r="F18" s="4">
@@ -1736,20 +1762,18 @@
         <f>[1]STUDENTS!AM19</f>
         <v>4</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="5">
-        <v>45038</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="C19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="5">
         <v>200</v>
       </c>
       <c r="F19" s="4">
@@ -1760,20 +1784,18 @@
         <f>[1]STUDENTS!AM20</f>
         <v>2</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="C20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="5">
         <v>200</v>
       </c>
       <c r="F20" s="4">
@@ -1784,20 +1806,18 @@
         <f>[1]STUDENTS!AM21</f>
         <v>0</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="C21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="5">
         <v>200</v>
       </c>
       <c r="F21" s="4">
@@ -1808,20 +1828,18 @@
         <f>[1]STUDENTS!AM22</f>
         <v>1</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F22" s="4">
@@ -1832,24 +1850,24 @@
         <f>[1]STUDENTS!AM23</f>
         <v>0</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="C23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="5">
         <v>200</v>
       </c>
       <c r="F23" s="4">
@@ -1860,24 +1878,24 @@
         <f>[1]STUDENTS!AM24</f>
         <v>6</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="5">
-        <v>45095</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="C24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="5">
         <v>200</v>
       </c>
       <c r="F24" s="4">
@@ -1888,20 +1906,18 @@
         <f>[1]STUDENTS!AM25</f>
         <v>1</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="5">
-        <v>45038</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="C25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="5">
         <v>200</v>
       </c>
       <c r="F25" s="4">
@@ -1912,20 +1928,18 @@
         <f>[1]STUDENTS!AM26</f>
         <v>1</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F26" s="4">
@@ -1936,20 +1950,18 @@
         <f>[1]STUDENTS!AM27</f>
         <v>0</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="C27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="5">
         <v>200</v>
       </c>
       <c r="F27" s="4">
@@ -1960,20 +1972,18 @@
         <f>[1]STUDENTS!AM28</f>
         <v>6</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="5">
-        <v>45420</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="C28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="5">
         <v>200</v>
       </c>
       <c r="F28" s="4">
@@ -1984,24 +1994,24 @@
         <f>[1]STUDENTS!AM29</f>
         <v>3</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>1200</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="5">
-        <v>45038</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="C29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="5">
         <v>200</v>
       </c>
       <c r="F29" s="4">
@@ -2012,24 +2022,24 @@
         <f>[1]STUDENTS!AM30</f>
         <v>9</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="5">
-        <v>45297</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="C30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="5">
         <v>200</v>
       </c>
       <c r="F30" s="4">
@@ -2040,24 +2050,24 @@
         <f>[1]STUDENTS!AM31</f>
         <v>3</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>1500</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="C31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="5">
         <v>200</v>
       </c>
       <c r="F31" s="4">
@@ -2068,20 +2078,18 @@
         <f>[1]STUDENTS!AM32</f>
         <v>1</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="C32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="5">
         <v>200</v>
       </c>
       <c r="F32" s="4">
@@ -2092,20 +2100,18 @@
         <f>[1]STUDENTS!AM33</f>
         <v>9</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="C33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="5">
         <v>200</v>
       </c>
       <c r="F33" s="4">
@@ -2116,24 +2122,24 @@
         <f>[1]STUDENTS!AM34</f>
         <v>6</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>2700</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="C34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="5">
         <v>200</v>
       </c>
       <c r="F34" s="4">
@@ -2144,24 +2150,24 @@
         <f>[1]STUDENTS!AM35</f>
         <v>3</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>3600</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="C35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="5">
         <v>200</v>
       </c>
       <c r="F35" s="4">
@@ -2172,24 +2178,24 @@
         <f>[1]STUDENTS!AM36</f>
         <v>6</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>2700</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="C36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="5">
         <v>200</v>
       </c>
       <c r="F36" s="4">
@@ -2200,24 +2206,24 @@
         <f>[1]STUDENTS!AM37</f>
         <v>6</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>2700</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="C37" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="5">
         <v>200</v>
       </c>
       <c r="F37" s="4">
@@ -2228,20 +2234,18 @@
         <f>[1]STUDENTS!AM38</f>
         <v>2</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E38" s="6">
+      <c r="C38" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="5">
         <v>200</v>
       </c>
       <c r="F38" s="4">
@@ -2252,20 +2256,18 @@
         <f>[1]STUDENTS!AM39</f>
         <v>2</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="5">
-        <v>45165</v>
-      </c>
-      <c r="E39" s="6">
+      <c r="C39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="5">
         <v>200</v>
       </c>
       <c r="F39" s="4">
@@ -2276,20 +2278,18 @@
         <f>[1]STUDENTS!AM40</f>
         <v>2</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="5">
-        <v>45095</v>
-      </c>
-      <c r="E40" s="6">
+      <c r="C40" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="5">
         <v>200</v>
       </c>
       <c r="F40" s="4">
@@ -2300,24 +2300,24 @@
         <f>[1]STUDENTS!AM41</f>
         <v>2</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>3600</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E41" s="6">
+      <c r="C41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="5">
         <v>200</v>
       </c>
       <c r="F41" s="4">
@@ -2328,24 +2328,24 @@
         <f>[1]STUDENTS!AM42</f>
         <v>7</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>2400</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E42" s="6">
+      <c r="C42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="5">
         <v>200</v>
       </c>
       <c r="F42" s="4">
@@ -2356,20 +2356,18 @@
         <f>[1]STUDENTS!AM43</f>
         <v>10</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="5">
-        <v>45078</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="C43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F43" s="4">
@@ -2380,20 +2378,18 @@
         <f>[1]STUDENTS!AM44</f>
         <v>5</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E44" s="6">
+      <c r="C44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="5">
         <v>200</v>
       </c>
       <c r="F44" s="4">
@@ -2404,20 +2400,18 @@
         <f>[1]STUDENTS!AM45</f>
         <v>0</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E45" s="6">
+      <c r="C45" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="5">
         <v>200</v>
       </c>
       <c r="F45" s="4">
@@ -2428,20 +2422,18 @@
         <f>[1]STUDENTS!AM46</f>
         <v>1</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="5">
-        <v>45022</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="C46" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="5">
         <v>200</v>
       </c>
       <c r="F46" s="4">
@@ -2452,20 +2444,18 @@
         <f>[1]STUDENTS!AM47</f>
         <v>2</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E47" s="6">
+      <c r="C47" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="5">
         <v>200</v>
       </c>
       <c r="F47" s="4">
@@ -2476,24 +2466,24 @@
         <f>[1]STUDENTS!AM48</f>
         <v>4</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>3300</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="C48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F48" s="4">
@@ -2504,24 +2494,24 @@
         <f>[1]STUDENTS!AM49</f>
         <v>1</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>3900</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="5">
-        <v>45480</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="C49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="5">
         <v>200</v>
       </c>
       <c r="F49" s="4">
@@ -2532,24 +2522,24 @@
         <f>[1]STUDENTS!AM50</f>
         <v>1</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E50" s="6">
+      <c r="C50" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="5">
         <v>200</v>
       </c>
       <c r="F50" s="4">
@@ -2560,24 +2550,24 @@
         <f>[1]STUDENTS!AM51</f>
         <v>5</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="5">
-        <v>45038</v>
-      </c>
-      <c r="E51" s="6">
+      <c r="C51" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="5">
         <v>200</v>
       </c>
       <c r="F51" s="4">
@@ -2588,20 +2578,18 @@
         <f>[1]STUDENTS!AM52</f>
         <v>1</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="C52" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F52" s="4">
@@ -2612,24 +2600,24 @@
         <f>[1]STUDENTS!AM53</f>
         <v>4</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>3300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="5">
-        <v>45420</v>
-      </c>
-      <c r="E53" s="6">
+      <c r="C53" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="5">
         <v>200</v>
       </c>
       <c r="F53" s="4">
@@ -2640,24 +2628,24 @@
         <f>[1]STUDENTS!AM54</f>
         <v>7</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="5">
-        <v>45480</v>
-      </c>
-      <c r="E54" s="6">
+      <c r="C54" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="5">
         <v>200</v>
       </c>
       <c r="F54" s="4">
@@ -2668,20 +2656,18 @@
         <f>[1]STUDENTS!AM55</f>
         <v>1</v>
       </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E55" s="6">
+      <c r="C55" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="5">
         <v>200</v>
       </c>
       <c r="F55" s="4">
@@ -2692,24 +2678,24 @@
         <f>[1]STUDENTS!AM56</f>
         <v>10</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <v>1500</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="5">
-        <v>45038</v>
-      </c>
-      <c r="E56" s="6">
+      <c r="C56" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="5">
         <v>200</v>
       </c>
       <c r="F56" s="4">
@@ -2720,20 +2706,18 @@
         <f>[1]STUDENTS!AM57</f>
         <v>1</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E57" s="6">
+      <c r="C57" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="5">
         <v>200</v>
       </c>
       <c r="F57" s="4">
@@ -2744,20 +2728,18 @@
         <f>[1]STUDENTS!AM58</f>
         <v>1</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E58" s="6">
+      <c r="C58" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="5">
         <v>200</v>
       </c>
       <c r="F58" s="4">
@@ -2768,20 +2750,18 @@
         <f>[1]STUDENTS!AM59</f>
         <v>1</v>
       </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="5">
-        <v>45052</v>
-      </c>
-      <c r="E59" s="6">
+      <c r="C59" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="5">
         <v>200</v>
       </c>
       <c r="F59" s="4">
@@ -2792,20 +2772,18 @@
         <f>[1]STUDENTS!AM60</f>
         <v>2</v>
       </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E60" s="6">
+      <c r="C60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="5">
         <v>200</v>
       </c>
       <c r="F60" s="4">
@@ -2816,20 +2794,18 @@
         <f>[1]STUDENTS!AM61</f>
         <v>2</v>
       </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E61" s="6">
+      <c r="C61" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="5">
         <v>200</v>
       </c>
       <c r="F61" s="4">
@@ -2840,24 +2816,24 @@
         <f>[1]STUDENTS!AM62</f>
         <v>13</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="5">
-        <v>45417</v>
-      </c>
-      <c r="E62" s="6">
+      <c r="C62" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="5">
         <v>200</v>
       </c>
       <c r="F62" s="4">
@@ -2868,24 +2844,24 @@
         <f>[1]STUDENTS!AM63</f>
         <v>1</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="5">
         <v>1800</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="5">
-        <v>45046</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="C63" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="5">
         <v>200</v>
       </c>
       <c r="F63" s="4">
@@ -2896,24 +2872,24 @@
         <f>[1]STUDENTS!AM64</f>
         <v>1</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>4200</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="5">
-        <v>45031</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="C64" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="5">
         <v>200</v>
       </c>
       <c r="F64" s="4">
@@ -2924,20 +2900,18 @@
         <f>[1]STUDENTS!AM65</f>
         <v>8</v>
       </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="5">
-        <v>45081</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="C65" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="5">
         <v>200</v>
       </c>
       <c r="F65" s="4">
@@ -2948,24 +2922,24 @@
         <f>[1]STUDENTS!AM66</f>
         <v>1</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="5">
-        <v>45417</v>
-      </c>
-      <c r="E66" s="6">
+      <c r="C66" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="5">
         <v>200</v>
       </c>
       <c r="F66" s="4">
@@ -2976,24 +2950,24 @@
         <f>[1]STUDENTS!AM67</f>
         <v>2</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="5">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="5">
-        <v>45480</v>
-      </c>
-      <c r="E67" s="6">
+      <c r="C67" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="5">
         <v>200</v>
       </c>
       <c r="F67" s="4">
@@ -3004,10 +2978,10 @@
         <f>[1]STUDENTS!AM68</f>
         <v>1</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="5">
         <v>1200</v>
       </c>
     </row>

--- a/Chenda.xlsx
+++ b/Chenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Desktop\CODING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C451E68B-9966-443A-9C02-8FA1A4E9A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EBCF11-1540-4E26-8B65-0BD4E938435D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99AB6E6A-85BA-4F0A-A1B5-9EF41BDE36B0}"/>
   </bookViews>
@@ -371,7 +371,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm\.dd\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm\.dd\.yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -431,7 +431,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1369,6 +1369,9 @@
       <c r="C2" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D2" s="4">
+        <v>1001</v>
+      </c>
       <c r="E2" s="5">
         <v>200</v>
       </c>
@@ -1397,6 +1400,9 @@
       <c r="C3" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D3" s="4">
+        <v>1002</v>
+      </c>
       <c r="E3" s="5">
         <v>200</v>
       </c>
@@ -1425,6 +1431,9 @@
       <c r="C4" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="D4" s="4">
+        <v>1003</v>
+      </c>
       <c r="E4" s="5">
         <v>200</v>
       </c>
@@ -1447,6 +1456,9 @@
       <c r="C5" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D5" s="4">
+        <v>1004</v>
+      </c>
       <c r="E5" s="5">
         <v>200</v>
       </c>
@@ -1475,6 +1487,9 @@
       <c r="C6" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="D6" s="4">
+        <v>1005</v>
+      </c>
       <c r="E6" s="5">
         <v>200</v>
       </c>
@@ -1503,6 +1518,9 @@
       <c r="C7" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D7" s="4">
+        <v>1006</v>
+      </c>
       <c r="E7" s="5">
         <v>200</v>
       </c>
@@ -1525,6 +1543,9 @@
       <c r="C8" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D8" s="4">
+        <v>1007</v>
+      </c>
       <c r="E8" s="5">
         <v>200</v>
       </c>
@@ -1547,6 +1568,9 @@
       <c r="C9" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D9" s="4">
+        <v>1008</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>80</v>
       </c>
@@ -1569,6 +1593,9 @@
       <c r="C10" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D10" s="4">
+        <v>1009</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>81</v>
       </c>
@@ -1591,6 +1618,9 @@
       <c r="C11" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D11" s="4">
+        <v>1010</v>
+      </c>
       <c r="E11" s="5">
         <v>200</v>
       </c>
@@ -1613,6 +1643,9 @@
       <c r="C12" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D12" s="4">
+        <v>1011</v>
+      </c>
       <c r="E12" s="5">
         <v>200</v>
       </c>
@@ -1641,6 +1674,9 @@
       <c r="C13" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D13" s="4">
+        <v>1012</v>
+      </c>
       <c r="E13" s="5">
         <v>200</v>
       </c>
@@ -1663,6 +1699,9 @@
       <c r="C14" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="D14" s="4">
+        <v>1013</v>
+      </c>
       <c r="E14" s="5" t="s">
         <v>81</v>
       </c>
@@ -1685,6 +1724,9 @@
       <c r="C15" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="D15" s="4">
+        <v>1014</v>
+      </c>
       <c r="E15" s="5">
         <v>200</v>
       </c>
@@ -1707,6 +1749,9 @@
       <c r="C16" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="D16" s="4">
+        <v>1015</v>
+      </c>
       <c r="E16" s="5">
         <v>200</v>
       </c>
@@ -1729,6 +1774,9 @@
       <c r="C17" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D17" s="4">
+        <v>1016</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>81</v>
       </c>
@@ -1751,6 +1799,9 @@
       <c r="C18" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D18" s="4">
+        <v>1017</v>
+      </c>
       <c r="E18" s="5">
         <v>200</v>
       </c>
@@ -1773,6 +1824,9 @@
       <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="D19" s="4">
+        <v>1018</v>
+      </c>
       <c r="E19" s="5">
         <v>200</v>
       </c>
@@ -1795,6 +1849,9 @@
       <c r="C20" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D20" s="4">
+        <v>1019</v>
+      </c>
       <c r="E20" s="5">
         <v>200</v>
       </c>
@@ -1817,6 +1874,9 @@
       <c r="C21" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D21" s="4">
+        <v>1020</v>
+      </c>
       <c r="E21" s="5">
         <v>200</v>
       </c>
@@ -1839,6 +1899,9 @@
       <c r="C22" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D22" s="4">
+        <v>1021</v>
+      </c>
       <c r="E22" s="5" t="s">
         <v>81</v>
       </c>
@@ -1867,6 +1930,9 @@
       <c r="C23" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D23" s="4">
+        <v>1022</v>
+      </c>
       <c r="E23" s="5">
         <v>200</v>
       </c>
@@ -1895,6 +1961,9 @@
       <c r="C24" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="D24" s="4">
+        <v>1023</v>
+      </c>
       <c r="E24" s="5">
         <v>200</v>
       </c>
@@ -1917,6 +1986,9 @@
       <c r="C25" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="D25" s="4">
+        <v>1024</v>
+      </c>
       <c r="E25" s="5">
         <v>200</v>
       </c>
@@ -1939,6 +2011,9 @@
       <c r="C26" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D26" s="4">
+        <v>1025</v>
+      </c>
       <c r="E26" s="5" t="s">
         <v>80</v>
       </c>
@@ -1961,6 +2036,9 @@
       <c r="C27" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D27" s="4">
+        <v>1026</v>
+      </c>
       <c r="E27" s="5">
         <v>200</v>
       </c>
@@ -1983,6 +2061,9 @@
       <c r="C28" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="D28" s="4">
+        <v>1027</v>
+      </c>
       <c r="E28" s="5">
         <v>200</v>
       </c>
@@ -2011,6 +2092,9 @@
       <c r="C29" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="D29" s="4">
+        <v>1028</v>
+      </c>
       <c r="E29" s="5">
         <v>200</v>
       </c>
@@ -2039,6 +2123,9 @@
       <c r="C30" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="D30" s="4">
+        <v>1029</v>
+      </c>
       <c r="E30" s="5">
         <v>200</v>
       </c>
@@ -2067,6 +2154,9 @@
       <c r="C31" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D31" s="4">
+        <v>1030</v>
+      </c>
       <c r="E31" s="5">
         <v>200</v>
       </c>
@@ -2089,6 +2179,9 @@
       <c r="C32" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D32" s="4">
+        <v>1031</v>
+      </c>
       <c r="E32" s="5">
         <v>200</v>
       </c>
@@ -2111,6 +2204,9 @@
       <c r="C33" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D33" s="4">
+        <v>1032</v>
+      </c>
       <c r="E33" s="5">
         <v>200</v>
       </c>
@@ -2139,6 +2235,9 @@
       <c r="C34" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D34" s="4">
+        <v>1033</v>
+      </c>
       <c r="E34" s="5">
         <v>200</v>
       </c>
@@ -2167,6 +2266,9 @@
       <c r="C35" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D35" s="4">
+        <v>1034</v>
+      </c>
       <c r="E35" s="5">
         <v>200</v>
       </c>
@@ -2195,6 +2297,9 @@
       <c r="C36" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D36" s="4">
+        <v>1035</v>
+      </c>
       <c r="E36" s="5">
         <v>200</v>
       </c>
@@ -2223,6 +2328,9 @@
       <c r="C37" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D37" s="4">
+        <v>1036</v>
+      </c>
       <c r="E37" s="5">
         <v>200</v>
       </c>
@@ -2245,6 +2353,9 @@
       <c r="C38" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D38" s="4">
+        <v>1037</v>
+      </c>
       <c r="E38" s="5">
         <v>200</v>
       </c>
@@ -2267,6 +2378,9 @@
       <c r="C39" s="6" t="s">
         <v>108</v>
       </c>
+      <c r="D39" s="4">
+        <v>1038</v>
+      </c>
       <c r="E39" s="5">
         <v>200</v>
       </c>
@@ -2289,6 +2403,9 @@
       <c r="C40" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="D40" s="4">
+        <v>1039</v>
+      </c>
       <c r="E40" s="5">
         <v>200</v>
       </c>
@@ -2317,6 +2434,9 @@
       <c r="C41" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D41" s="4">
+        <v>1040</v>
+      </c>
       <c r="E41" s="5">
         <v>200</v>
       </c>
@@ -2345,6 +2465,9 @@
       <c r="C42" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D42" s="4">
+        <v>1041</v>
+      </c>
       <c r="E42" s="5">
         <v>200</v>
       </c>
@@ -2367,6 +2490,9 @@
       <c r="C43" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="D43" s="4">
+        <v>1042</v>
+      </c>
       <c r="E43" s="5" t="s">
         <v>80</v>
       </c>
@@ -2389,6 +2515,9 @@
       <c r="C44" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D44" s="4">
+        <v>1043</v>
+      </c>
       <c r="E44" s="5">
         <v>200</v>
       </c>
@@ -2411,6 +2540,9 @@
       <c r="C45" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D45" s="4">
+        <v>1044</v>
+      </c>
       <c r="E45" s="5">
         <v>200</v>
       </c>
@@ -2433,6 +2565,9 @@
       <c r="C46" s="6" t="s">
         <v>106</v>
       </c>
+      <c r="D46" s="4">
+        <v>1045</v>
+      </c>
       <c r="E46" s="5">
         <v>200</v>
       </c>
@@ -2455,6 +2590,9 @@
       <c r="C47" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D47" s="4">
+        <v>1046</v>
+      </c>
       <c r="E47" s="5">
         <v>200</v>
       </c>
@@ -2483,6 +2621,9 @@
       <c r="C48" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D48" s="4">
+        <v>1047</v>
+      </c>
       <c r="E48" s="5" t="s">
         <v>88</v>
       </c>
@@ -2511,6 +2652,9 @@
       <c r="C49" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="D49" s="4">
+        <v>1048</v>
+      </c>
       <c r="E49" s="5">
         <v>200</v>
       </c>
@@ -2539,6 +2683,9 @@
       <c r="C50" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D50" s="4">
+        <v>1049</v>
+      </c>
       <c r="E50" s="5">
         <v>200</v>
       </c>
@@ -2567,6 +2714,9 @@
       <c r="C51" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="D51" s="4">
+        <v>1050</v>
+      </c>
       <c r="E51" s="5">
         <v>200</v>
       </c>
@@ -2589,6 +2739,9 @@
       <c r="C52" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D52" s="4">
+        <v>1051</v>
+      </c>
       <c r="E52" s="5" t="s">
         <v>88</v>
       </c>
@@ -2617,6 +2770,9 @@
       <c r="C53" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="D53" s="4">
+        <v>1052</v>
+      </c>
       <c r="E53" s="5">
         <v>200</v>
       </c>
@@ -2645,6 +2801,9 @@
       <c r="C54" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="D54" s="4">
+        <v>1053</v>
+      </c>
       <c r="E54" s="5">
         <v>200</v>
       </c>
@@ -2667,6 +2826,9 @@
       <c r="C55" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D55" s="4">
+        <v>1054</v>
+      </c>
       <c r="E55" s="5">
         <v>200</v>
       </c>
@@ -2695,6 +2857,9 @@
       <c r="C56" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="D56" s="4">
+        <v>1055</v>
+      </c>
       <c r="E56" s="5">
         <v>200</v>
       </c>
@@ -2717,6 +2882,9 @@
       <c r="C57" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D57" s="4">
+        <v>1056</v>
+      </c>
       <c r="E57" s="5">
         <v>200</v>
       </c>
@@ -2739,6 +2907,9 @@
       <c r="C58" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D58" s="4">
+        <v>1057</v>
+      </c>
       <c r="E58" s="5">
         <v>200</v>
       </c>
@@ -2761,6 +2932,9 @@
       <c r="C59" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="D59" s="4">
+        <v>1058</v>
+      </c>
       <c r="E59" s="5">
         <v>200</v>
       </c>
@@ -2783,6 +2957,9 @@
       <c r="C60" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D60" s="4">
+        <v>1059</v>
+      </c>
       <c r="E60" s="5">
         <v>200</v>
       </c>
@@ -2805,6 +2982,9 @@
       <c r="C61" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D61" s="4">
+        <v>1060</v>
+      </c>
       <c r="E61" s="5">
         <v>200</v>
       </c>
@@ -2833,6 +3013,9 @@
       <c r="C62" s="6" t="s">
         <v>101</v>
       </c>
+      <c r="D62" s="4">
+        <v>1061</v>
+      </c>
       <c r="E62" s="5">
         <v>200</v>
       </c>
@@ -2861,6 +3044,9 @@
       <c r="C63" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="D63" s="4">
+        <v>1062</v>
+      </c>
       <c r="E63" s="5">
         <v>200</v>
       </c>
@@ -2889,6 +3075,9 @@
       <c r="C64" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="D64" s="4">
+        <v>1063</v>
+      </c>
       <c r="E64" s="5">
         <v>200</v>
       </c>
@@ -2911,6 +3100,9 @@
       <c r="C65" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="D65" s="4">
+        <v>1064</v>
+      </c>
       <c r="E65" s="5">
         <v>200</v>
       </c>
@@ -2939,6 +3131,9 @@
       <c r="C66" s="6" t="s">
         <v>101</v>
       </c>
+      <c r="D66" s="4">
+        <v>1065</v>
+      </c>
       <c r="E66" s="5">
         <v>200</v>
       </c>
@@ -2966,6 +3161,9 @@
       </c>
       <c r="C67" s="6" t="s">
         <v>103</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1066</v>
       </c>
       <c r="E67" s="5">
         <v>200</v>
